--- a/Sprints/Sprint5/Sprint_Review_5.xlsx
+++ b/Sprints/Sprint5/Sprint_Review_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\Documents\Studium\LVs\ITP\GithubRep\ProjectWebshop\Sprints\Sprint5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D37568-814F-4803-9CB3-6EC95B260706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793CC01C-F2D6-481B-B96F-609833CD8AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -188,13 +188,7 @@
     <t>.) Customers &amp; Orders</t>
   </si>
   <si>
-    <t>.) Payment &amp; Users</t>
-  </si>
-  <si>
     <t>.) Sliders</t>
-  </si>
-  <si>
-    <t>.) Box Section</t>
   </si>
   <si>
     <t>.) Create Dashboard</t>
@@ -458,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,68 +467,75 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
@@ -869,28 +870,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -904,133 +905,133 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20">
+      <c r="B6" s="22"/>
+      <c r="C6" s="25">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1062,16 +1063,22 @@
       <c r="A16" s="8">
         <v>35</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9">
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
@@ -1079,16 +1086,22 @@
       <c r="A17" s="8">
         <v>36</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9">
-        <f t="shared" ref="E17:E43" si="0">D17-C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="C17" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E20" si="0">D17-C17</f>
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
@@ -1096,16 +1109,22 @@
       <c r="A18" s="8">
         <v>39</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
@@ -1113,16 +1132,22 @@
       <c r="A19" s="8">
         <v>40</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9">
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
@@ -1130,16 +1155,22 @@
       <c r="A20" s="8">
         <v>41</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9">
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
@@ -1147,16 +1178,21 @@
       <c r="A21" s="8">
         <v>38</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
@@ -1164,16 +1200,21 @@
       <c r="A22" s="8">
         <v>43</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
+      <c r="C22" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
@@ -1181,16 +1222,21 @@
       <c r="A23" s="8">
         <v>44</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
@@ -1198,16 +1244,21 @@
       <c r="A24" s="8">
         <v>45</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3</v>
+      </c>
+      <c r="E24" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
@@ -1215,16 +1266,21 @@
       <c r="A25" s="8">
         <v>70</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
@@ -1232,16 +1288,18 @@
       <c r="A26" s="8">
         <v>71</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E26:E41" si="1">D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
     </row>
@@ -1249,16 +1307,22 @@
       <c r="A27" s="8">
         <v>51</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
       <c r="E27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="7"/>
     </row>
@@ -1266,16 +1330,22 @@
       <c r="A28" s="8">
         <v>52</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.5</v>
+      </c>
       <c r="E28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="7"/>
     </row>
@@ -1283,16 +1353,22 @@
       <c r="A29" s="8">
         <v>53</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1.5</v>
+      </c>
       <c r="E29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="7"/>
     </row>
@@ -1300,16 +1376,22 @@
       <c r="A30" s="8">
         <v>54</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
       <c r="E30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
     </row>
@@ -1317,16 +1399,22 @@
       <c r="A31" s="8">
         <v>58</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
       <c r="E31" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="7"/>
     </row>
@@ -1334,16 +1422,22 @@
       <c r="A32" s="8">
         <v>56</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
       <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
     </row>
@@ -1351,16 +1445,22 @@
       <c r="A33" s="8">
         <v>57</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
       <c r="E33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="7"/>
     </row>
@@ -1368,16 +1468,22 @@
       <c r="A34" s="8">
         <v>60</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1.5</v>
+      </c>
       <c r="E34" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="7"/>
     </row>
@@ -1385,16 +1491,22 @@
       <c r="A35" s="8">
         <v>82</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.5</v>
+      </c>
       <c r="E35" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
     </row>
@@ -1402,7 +1514,7 @@
       <c r="A36" s="8">
         <v>62</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="7">
@@ -1412,10 +1524,12 @@
         <v>2.5</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="7"/>
     </row>
@@ -1423,16 +1537,22 @@
       <c r="A37" s="8">
         <v>64</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="7">
+        <v>7</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
       <c r="E37" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="7"/>
     </row>
@@ -1440,134 +1560,124 @@
       <c r="A38" s="8">
         <v>68</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2.5</v>
+      </c>
       <c r="E38" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>69</v>
-      </c>
-      <c r="B39" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="7">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
       <c r="E39" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>72</v>
-      </c>
-      <c r="B40" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
       <c r="E40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>73</v>
-      </c>
-      <c r="B41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D41" s="7">
+        <v>8</v>
+      </c>
       <c r="E41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3"/>
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>66</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9">
-        <f t="shared" si="0"/>
+      <c r="A42" s="6">
+        <f>COUNT(A16:A41)</f>
+        <v>26</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <f>SUM(E16:E41)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F42" s="6">
+        <f>COUNT(F16:F41)</f>
+        <v>26</v>
+      </c>
+      <c r="G42" s="6">
+        <f>COUNT(G16:G41)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>67</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>COUNT(A16:A43)</f>
-        <v>28</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
-        <f>SUM(E16:E43)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="F44" s="6">
-        <f>COUNT(F16:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <f>COUNT(G16:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="2" t="s">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1578,6 +1688,7 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1592,7 +1703,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
